--- a/Group14-A2/src/main/java/Report/ReportData.xlsx
+++ b/Group14-A2/src/main/java/Report/ReportData.xlsx
@@ -73,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -390,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -398,11 +399,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.17578125" collapsed="true" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.61328125" collapsed="true" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="9.35546875" collapsed="true" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.61328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.35546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.61328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.61328125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.8515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -439,6 +440,23 @@
         <v>45408.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n" s="2">
+        <v>45408.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Group14-A2/src/main/java/Report/ReportData.xlsx
+++ b/Group14-A2/src/main/java/Report/ReportData.xlsx
@@ -73,8 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -402,8 +405,8 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.35546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.61328125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.61328125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.8515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.61328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.8515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -457,6 +460,57 @@
         <v>45408.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n" s="3">
+        <v>45410.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n" s="4">
+        <v>45410.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n" s="5">
+        <v>45410.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Group14-A2/src/main/java/Report/ReportData.xlsx
+++ b/Group14-A2/src/main/java/Report/ReportData.xlsx
@@ -73,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -394,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -511,6 +512,23 @@
         <v>45410.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n" s="6">
+        <v>45412.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Group14-A2/src/main/java/Report/ReportData.xlsx
+++ b/Group14-A2/src/main/java/Report/ReportData.xlsx
@@ -73,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -395,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -529,6 +530,23 @@
         <v>45412.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n" s="7">
+        <v>45413.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
